--- a/performanceTest/Perfomance Tests.xlsx
+++ b/performanceTest/Perfomance Tests.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Grid Size" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="GHB" sheetId="14" r:id="rId14"/>
     <sheet name="Packages" sheetId="15" r:id="rId15"/>
     <sheet name="Laycon" sheetId="16" r:id="rId16"/>
+    <sheet name="Solvers" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,12 +40,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
   <si>
     <t>y</t>
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>pcgn</t>
+  </si>
+  <si>
+    <t>de4</t>
+  </si>
+  <si>
+    <t>gmg</t>
+  </si>
+  <si>
+    <t>sip</t>
   </si>
 </sst>
 </file>
@@ -57,7 +73,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +88,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,8 +119,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,12 +167,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -138,6 +206,33 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -170,67 +265,98 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Grid Size</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="15875" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13629527559055118"/>
+                  <c:y val="-9.2652376786235058E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Grid Size'!$A$15:$A$19</c:f>
+              <c:f>'Grid Size'!$A$15:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -246,15 +372,27 @@
                 <c:pt idx="4">
                   <c:v>201</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Grid Size'!$B$15:$B$19</c:f>
+              <c:f>'Grid Size'!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>_(* #\ ##0.000_);_(* \(#\ ##0.000\);_(* "-"???_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.21199999999999999</c:v>
                 </c:pt>
@@ -270,10 +408,22 @@
                 <c:pt idx="4" formatCode="0">
                   <c:v>32.938299999999998</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.66679999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>255.15570000000002</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>512.24940000000004</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>848.70849999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -283,11 +433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138457968"/>
-        <c:axId val="138450128"/>
+        <c:axId val="119774352"/>
+        <c:axId val="119774912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138457968"/>
+        <c:axId val="119774352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,14 +463,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -329,7 +478,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -344,12 +493,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138450128"/>
+        <c:crossAx val="119774912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138450128"/>
+        <c:axId val="119774912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,14 +524,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -391,7 +539,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -406,7 +554,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138457968"/>
+        <c:crossAx val="119774352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -424,7 +572,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -496,6 +644,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -529,7 +678,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -547,7 +696,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -597,7 +758,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -607,11 +768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227051392"/>
-        <c:axId val="227051952"/>
+        <c:axId val="210199568"/>
+        <c:axId val="210200128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227051392"/>
+        <c:axId val="210199568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,12 +829,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227051952"/>
+        <c:crossAx val="210200128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227051952"/>
+        <c:axId val="210200128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -732,7 +893,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227051392"/>
+        <c:crossAx val="210199568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -796,6 +957,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -829,7 +991,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -838,16 +1000,26 @@
             <c:v>WELLS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -885,7 +1057,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -895,11 +1067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227054192"/>
-        <c:axId val="227054752"/>
+        <c:axId val="210202368"/>
+        <c:axId val="210202928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227054192"/>
+        <c:axId val="210202368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,12 +1128,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227054752"/>
+        <c:crossAx val="210202928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227054752"/>
+        <c:axId val="210202928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1020,7 +1192,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227054192"/>
+        <c:crossAx val="210202368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1084,6 +1256,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1127,7 +1300,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1145,7 +1318,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1154,19 +1339,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7500</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,7 +1380,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1205,11 +1390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227056992"/>
-        <c:axId val="227691360"/>
+        <c:axId val="210205168"/>
+        <c:axId val="210337968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227056992"/>
+        <c:axId val="210205168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,12 +1451,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227691360"/>
+        <c:crossAx val="210337968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227691360"/>
+        <c:axId val="210337968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1330,7 +1515,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227056992"/>
+        <c:crossAx val="210205168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1394,6 +1579,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1445,7 +1631,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1505,11 +1703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227693600"/>
-        <c:axId val="227694160"/>
+        <c:axId val="210340208"/>
+        <c:axId val="210340768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227693600"/>
+        <c:axId val="210340208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,12 +1764,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227694160"/>
+        <c:crossAx val="210340768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227694160"/>
+        <c:axId val="210340768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1629,7 +1827,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227693600"/>
+        <c:crossAx val="210340208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1693,6 +1891,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1726,7 +1925,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1735,16 +1934,26 @@
             <c:v>GHB</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1776,7 +1985,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1786,11 +1995,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227696400"/>
-        <c:axId val="227696960"/>
+        <c:axId val="210343008"/>
+        <c:axId val="210343568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227696400"/>
+        <c:axId val="210343008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,12 +2056,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227696960"/>
+        <c:crossAx val="210343568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227696960"/>
+        <c:axId val="210343568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +2118,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227696400"/>
+        <c:crossAx val="210343008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1973,6 +2182,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2006,7 +2216,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2015,16 +2225,26 @@
             <c:v>Package</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2056,7 +2276,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2066,11 +2286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226041456"/>
-        <c:axId val="226042016"/>
+        <c:axId val="210345808"/>
+        <c:axId val="210346368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226041456"/>
+        <c:axId val="210345808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,12 +2347,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226042016"/>
+        <c:crossAx val="210346368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226042016"/>
+        <c:axId val="210346368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,7 +2409,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226041456"/>
+        <c:crossAx val="210345808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2253,6 +2473,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2286,7 +2507,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2295,16 +2516,26 @@
             <c:v>LAYCON</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2342,7 +2573,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2352,11 +2583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226044256"/>
-        <c:axId val="226044816"/>
+        <c:axId val="210348608"/>
+        <c:axId val="210349168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226044256"/>
+        <c:axId val="210348608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,12 +2644,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226044816"/>
+        <c:crossAx val="210349168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226044816"/>
+        <c:axId val="210349168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2477,13 +2708,346 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226044256"/>
+        <c:crossAx val="210348608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SOLVERS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Solvers!$A$15:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Solvers!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #\ ##0.000_);_(* \(#\ ##0.000\);_(* "-"???_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55990000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>0.55390000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="210351408"/>
+        <c:axId val="210351968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="210351408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210351968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="210351968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #\ ##0.000_);_(* \(#\ ##0.000\);_(* &quot;-&quot;???_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210351408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -2541,6 +3105,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2574,7 +3139,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2592,7 +3157,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2642,7 +3219,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2652,11 +3229,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="139939376"/>
-        <c:axId val="139939936"/>
+        <c:axId val="119777152"/>
+        <c:axId val="119777712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139939376"/>
+        <c:axId val="119777152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,12 +3290,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139939936"/>
+        <c:crossAx val="119777712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139939936"/>
+        <c:axId val="119777712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +3352,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139939376"/>
+        <c:crossAx val="119777152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2839,6 +3416,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2882,7 +3460,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2900,14 +3478,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>InactActCells!$A$15:$A$19</c:f>
+              <c:f>InactActCells!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2920,7 +3510,10 @@
                 <c:pt idx="3">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="General">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2928,10 +3521,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>InactActCells!$B$15:$B$19</c:f>
+              <c:f>InactActCells!$B$15:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>_(* #\ ##0.000_);_(* \(#\ ##0.000\);_(* "-"???_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.31330000000000002</c:v>
                 </c:pt>
@@ -2944,13 +3537,16 @@
                 <c:pt idx="3">
                   <c:v>0.2802</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.27939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
                   <c:v>0.13590000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2960,11 +3556,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="139942176"/>
-        <c:axId val="139942736"/>
+        <c:axId val="119779952"/>
+        <c:axId val="119780512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139942176"/>
+        <c:axId val="119779952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,12 +3617,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139942736"/>
+        <c:crossAx val="119780512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139942736"/>
+        <c:axId val="119780512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3084,7 +3680,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139942176"/>
+        <c:crossAx val="119779952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3148,6 +3744,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3181,7 +3778,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3199,7 +3796,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3249,7 +3858,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3259,11 +3868,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="139944976"/>
-        <c:axId val="139945536"/>
+        <c:axId val="119782752"/>
+        <c:axId val="119783312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139944976"/>
+        <c:axId val="119782752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,12 +3929,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139945536"/>
+        <c:crossAx val="119783312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139945536"/>
+        <c:axId val="119783312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -3384,7 +3993,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139944976"/>
+        <c:crossAx val="119782752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3448,6 +4057,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3499,7 +4109,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3553,11 +4175,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137948848"/>
-        <c:axId val="137948288"/>
+        <c:axId val="119785552"/>
+        <c:axId val="119786112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137948848"/>
+        <c:axId val="119785552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3614,12 +4236,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137948288"/>
+        <c:crossAx val="119786112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137948288"/>
+        <c:axId val="119786112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -3677,7 +4299,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137948848"/>
+        <c:crossAx val="119785552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3769,7 +4391,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3835,11 +4469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137944928"/>
-        <c:axId val="3700128"/>
+        <c:axId val="119788352"/>
+        <c:axId val="119788912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137944928"/>
+        <c:axId val="119788352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,12 +4516,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3700128"/>
+        <c:crossAx val="119788912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3700128"/>
+        <c:axId val="119788912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -3946,7 +4580,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137944928"/>
+        <c:crossAx val="119788352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4010,6 +4644,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4043,7 +4678,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4061,7 +4696,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -4111,7 +4758,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4121,11 +4768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226892864"/>
-        <c:axId val="226893424"/>
+        <c:axId val="210191168"/>
+        <c:axId val="210191728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226892864"/>
+        <c:axId val="210191168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,12 +4829,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226893424"/>
+        <c:crossAx val="210191728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226893424"/>
+        <c:axId val="210191728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4891,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226892864"/>
+        <c:crossAx val="210191168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4308,6 +4955,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4341,7 +4989,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4359,7 +5007,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -4409,7 +5069,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4419,11 +5079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226895664"/>
-        <c:axId val="226896224"/>
+        <c:axId val="210193968"/>
+        <c:axId val="210194528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226895664"/>
+        <c:axId val="210193968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,12 +5140,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226896224"/>
+        <c:crossAx val="210194528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226896224"/>
+        <c:axId val="210194528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -4544,7 +5204,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226895664"/>
+        <c:crossAx val="210193968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4633,6 +5293,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4666,7 +5327,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4684,7 +5345,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -4734,7 +5407,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4744,11 +5417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226898464"/>
-        <c:axId val="226899024"/>
+        <c:axId val="210196768"/>
+        <c:axId val="210197328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226898464"/>
+        <c:axId val="210196768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4805,12 +5478,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226899024"/>
+        <c:crossAx val="210197328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226899024"/>
+        <c:axId val="210197328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4869,7 +5542,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226898464"/>
+        <c:crossAx val="210196768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5238,6 +5911,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5559,6 +6272,524 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6074,7 +7305,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6590,7 +7821,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7106,7 +8337,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7622,7 +8853,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8138,7 +9369,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8654,7 +9885,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9170,7 +10401,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13819,15 +15050,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14078,6 +15309,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -14637,15 +15905,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0.29399999999999998</v>
       </c>
@@ -14666,8 +15934,11 @@
       <c r="M1">
         <v>30.183</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P1">
+        <v>869.947</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.189</v>
       </c>
@@ -14688,8 +15959,11 @@
       <c r="M2">
         <v>32.712000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>820.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.182</v>
       </c>
@@ -14710,8 +15984,11 @@
       <c r="M3">
         <v>31.658000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>840.45699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.23599999999999999</v>
       </c>
@@ -14732,8 +16009,11 @@
       <c r="M4">
         <v>28.018000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>855.32399999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.159</v>
       </c>
@@ -14754,8 +16034,11 @@
       <c r="M5">
         <v>36.576000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>870.30100000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.24399999999999999</v>
       </c>
@@ -14776,8 +16059,11 @@
       <c r="M6">
         <v>27.98</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>843.38699999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.17799999999999999</v>
       </c>
@@ -14798,8 +16084,11 @@
       <c r="M7">
         <v>27.933</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>850.00699999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.20699999999999999</v>
       </c>
@@ -14820,8 +16109,11 @@
       <c r="M8">
         <v>44.262</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>841.30499999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.20699999999999999</v>
       </c>
@@ -14842,8 +16134,11 @@
       <c r="M9">
         <v>37.180999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>875.38699999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.22600000000000001</v>
       </c>
@@ -14864,8 +16159,11 @@
       <c r="M10">
         <v>32.880000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>820.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>AVERAGE(A1:A10)</f>
         <v>0.21220000000000003</v>
@@ -14903,11 +16201,15 @@
       <c r="N11" s="5">
         <v>201</v>
       </c>
+      <c r="P11" s="5">
+        <f>AVERAGE(P1:P10)</f>
+        <v>848.70849999999996</v>
+      </c>
       <c r="Q11" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -14917,7 +16219,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -14926,8 +16228,17 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>109.551</v>
+      </c>
+      <c r="P13">
+        <v>216.73699999999999</v>
+      </c>
+      <c r="S13">
+        <v>502.185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
@@ -14939,8 +16250,17 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>104.94499999999999</v>
+      </c>
+      <c r="P14">
+        <v>208.36699999999999</v>
+      </c>
+      <c r="S14">
+        <v>515.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -14952,8 +16272,17 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>112.04300000000001</v>
+      </c>
+      <c r="P15">
+        <v>222.78399999999999</v>
+      </c>
+      <c r="S15">
+        <v>512.23599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>21</v>
       </c>
@@ -14965,8 +16294,17 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>110.874</v>
+      </c>
+      <c r="P16">
+        <v>271.69799999999998</v>
+      </c>
+      <c r="S16">
+        <v>502.25700000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>51</v>
       </c>
@@ -14978,28 +16316,133 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>104.30500000000001</v>
+      </c>
+      <c r="P17">
+        <v>254.38900000000001</v>
+      </c>
+      <c r="S17">
+        <v>510.36799999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>101</v>
       </c>
       <c r="B18" s="8">
         <v>6.6707999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>105.389</v>
+      </c>
+      <c r="P18">
+        <v>267.34199999999998</v>
+      </c>
+      <c r="S18">
+        <v>520.36800000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>201</v>
       </c>
       <c r="B19" s="9">
         <v>32.938299999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
+      <c r="M19">
+        <v>107.00700000000001</v>
+      </c>
+      <c r="P19">
+        <v>248.518</v>
+      </c>
+      <c r="S19">
+        <v>500.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>401</v>
+      </c>
+      <c r="B20" s="23">
+        <f>M23</f>
+        <v>108.66679999999999</v>
+      </c>
+      <c r="M20">
+        <v>115.17</v>
+      </c>
+      <c r="P20">
+        <v>240.12299999999999</v>
+      </c>
+      <c r="S20">
+        <v>510.11200000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>601</v>
+      </c>
+      <c r="B21">
+        <f>P23</f>
+        <v>255.15570000000002</v>
+      </c>
+      <c r="M21">
+        <v>108.997</v>
+      </c>
+      <c r="P21">
+        <v>260.37799999999999</v>
+      </c>
+      <c r="S21">
+        <v>516.32799999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>801</v>
+      </c>
+      <c r="B22">
+        <f>S23</f>
+        <v>512.24940000000004</v>
+      </c>
+      <c r="M22">
+        <v>108.387</v>
+      </c>
+      <c r="P22">
+        <v>361.221</v>
+      </c>
+      <c r="S22">
+        <v>532.69000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>1001</v>
+      </c>
+      <c r="B23" s="4">
+        <f>P11</f>
+        <v>848.70849999999996</v>
+      </c>
+      <c r="M23" s="5">
+        <f>AVERAGE(M13:M22)</f>
+        <v>108.66679999999999</v>
+      </c>
+      <c r="N23" s="5">
+        <v>401</v>
+      </c>
+      <c r="P23" s="5">
+        <f>AVERAGE(P13:P22)</f>
+        <v>255.15570000000002</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>601</v>
+      </c>
+      <c r="S23" s="5">
+        <f>AVERAGE(S13:S22)</f>
+        <v>512.24940000000004</v>
+      </c>
+      <c r="T23" s="5">
+        <v>801</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15848,7 +17291,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16146,8 +17589,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <f>B11</f>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="B15" s="8">
         <f>A11</f>
@@ -16161,8 +17603,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <f>E11</f>
-        <v>-2500</v>
+        <v>2500</v>
       </c>
       <c r="B16" s="8">
         <f>D11</f>
@@ -16176,8 +17617,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <f>H11</f>
-        <v>-5000</v>
+        <v>5000</v>
       </c>
       <c r="B17" s="8">
         <f>G11</f>
@@ -16191,8 +17631,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <f>K11</f>
-        <v>-7500</v>
+        <v>7500</v>
       </c>
       <c r="B18" s="8">
         <f>J11</f>
@@ -16201,8 +17640,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
-        <f>N11</f>
-        <v>-10000</v>
+        <v>10000</v>
       </c>
       <c r="B19" s="14">
         <f>M11</f>
@@ -16249,7 +17687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -16651,8 +18089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17028,7 +18466,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17270,8 +18708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17573,12 +19011,486 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="J1" s="1">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="J2" s="1">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="J3" s="1">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="J6" s="1">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f>AVERAGE(A1:A10)</f>
+        <v>0.5605</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2">
+        <f>AVERAGE(D1:D10)</f>
+        <v>0.5585</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2">
+        <f>AVERAGE(G1:G10)</f>
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="H11" s="10">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <f>AVERAGE(J1:J10)</f>
+        <v>0.55990000000000006</v>
+      </c>
+      <c r="K11" s="10">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2">
+        <f>AVERAGE(M1:M10)</f>
+        <v>0.55390000000000006</v>
+      </c>
+      <c r="N11" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8">
+        <f>A11</f>
+        <v>0.5605</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8">
+        <f>D11</f>
+        <v>0.5585</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>3</v>
+      </c>
+      <c r="B17" s="8">
+        <f>G11</f>
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8">
+        <f>J11</f>
+        <v>0.55990000000000006</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>5</v>
+      </c>
+      <c r="B19" s="28">
+        <f>M11</f>
+        <v>0.55390000000000006</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="34"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Solvers!B15:B15</xm:f>
+              <xm:sqref>A15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Solvers!B16:B16</xm:f>
+              <xm:sqref>A16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Solvers!B17:B17</xm:f>
+              <xm:sqref>A17</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17986,8 +19898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18013,6 +19925,9 @@
       <c r="M1">
         <v>0.14299999999999999</v>
       </c>
+      <c r="P1">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -18035,6 +19950,9 @@
       <c r="M2">
         <v>0.11799999999999999</v>
       </c>
+      <c r="P2">
+        <v>0.26500000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -18057,6 +19975,9 @@
       <c r="M3">
         <v>0.11899999999999999</v>
       </c>
+      <c r="P3">
+        <v>0.28899999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -18079,6 +20000,9 @@
       <c r="M4">
         <v>0.13400000000000001</v>
       </c>
+      <c r="P4">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -18101,6 +20025,9 @@
       <c r="M5">
         <v>0.14399999999999999</v>
       </c>
+      <c r="P5">
+        <v>0.312</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -18123,6 +20050,9 @@
       <c r="M6">
         <v>0.14899999999999999</v>
       </c>
+      <c r="P6">
+        <v>0.27500000000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -18145,6 +20075,9 @@
       <c r="M7">
         <v>0.129</v>
       </c>
+      <c r="P7">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -18167,6 +20100,9 @@
       <c r="M8">
         <v>0.11700000000000001</v>
       </c>
+      <c r="P8">
+        <v>0.26700000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -18188,6 +20124,9 @@
       <c r="M9">
         <v>0.13400000000000001</v>
       </c>
+      <c r="P9">
+        <v>0.247</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -18210,6 +20149,9 @@
       <c r="M10">
         <v>0.17199999999999999</v>
       </c>
+      <c r="P10">
+        <v>0.249</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -18248,6 +20190,10 @@
       </c>
       <c r="N11" s="5">
         <v>100</v>
+      </c>
+      <c r="P11" s="5">
+        <f>AVERAGE(P1:P10)</f>
+        <v>0.27939999999999998</v>
       </c>
       <c r="Q11" s="5">
         <v>99</v>
@@ -18342,17 +20288,23 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <f>P11</f>
+        <v>0.27939999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <f>N11</f>
         <v>100</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B20" s="9">
         <f>M11</f>
         <v>0.13590000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
